--- a/Test/TestResults.xlsx
+++ b/Test/TestResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BA\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20F496C-7DCC-4AE1-AB8D-BD2628A8C597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDEED8A-2122-4FA6-8806-BA00DBF7EAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,20 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>LOD</t>
   </si>
   <si>
-    <t>LOD5</t>
-  </si>
-  <si>
-    <t>LOD0</t>
-  </si>
-  <si>
-    <t>NOLOD</t>
-  </si>
-  <si>
     <t>FPS</t>
   </si>
   <si>
@@ -69,52 +60,82 @@
     <t>SL-Max</t>
   </si>
   <si>
-    <t>Instances</t>
-  </si>
-  <si>
-    <t>Rendered Triangles</t>
-  </si>
-  <si>
-    <t>8769</t>
-  </si>
-  <si>
     <t>ML-SL-EQ</t>
   </si>
   <si>
-    <t>12828</t>
-  </si>
-  <si>
-    <t>10Q</t>
-  </si>
-  <si>
-    <t>16B</t>
-  </si>
-  <si>
-    <t>15M</t>
-  </si>
-  <si>
     <t>ML-Max</t>
   </si>
   <si>
     <t>Min-FPS</t>
   </si>
   <si>
-    <t>60.0</t>
-  </si>
-  <si>
-    <t>84.7</t>
-  </si>
-  <si>
-    <t>59.8</t>
-  </si>
-  <si>
-    <t>Moana Island</t>
-  </si>
-  <si>
-    <t>ML</t>
-  </si>
-  <si>
-    <t>SL-NotPossible</t>
+    <t>ML-UN</t>
+  </si>
+  <si>
+    <t>ML-RE</t>
+  </si>
+  <si>
+    <t>Moana</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>SL limited to 1m</t>
+  </si>
+  <si>
+    <t>SL RQ limited to 0.3m</t>
+  </si>
+  <si>
+    <t>Total Instances</t>
+  </si>
+  <si>
+    <t>Total Triangles</t>
+  </si>
+  <si>
+    <t>NUM-TLAS</t>
+  </si>
+  <si>
+    <t>NUM-BLAS</t>
+  </si>
+  <si>
+    <t>Total Vertices</t>
+  </si>
+  <si>
+    <t>Total Indices</t>
+  </si>
+  <si>
+    <t>XPOS</t>
+  </si>
+  <si>
+    <t>YPOS</t>
+  </si>
+  <si>
+    <t>ZPOS</t>
+  </si>
+  <si>
+    <t>ROTX</t>
+  </si>
+  <si>
+    <t>ROTY</t>
+  </si>
+  <si>
+    <t>LOD1</t>
+  </si>
+  <si>
+    <t>LOD6</t>
+  </si>
+  <si>
+    <t>Total Nodes</t>
+  </si>
+  <si>
+    <t>AS-Size(mb)</t>
+  </si>
+  <si>
+    <t>ColorSensitivity</t>
+  </si>
+  <si>
+    <t>LOD1-SL</t>
   </si>
 </sst>
 </file>
@@ -141,7 +162,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -149,15 +170,206 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -438,269 +650,956 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I19"/>
+  <dimension ref="B2:X23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="12.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="3"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="5" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="3"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="4"/>
+      <c r="C4" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="T4" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="W4" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="X4" s="33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="5">
+        <v>52</v>
+      </c>
+      <c r="D5" s="6">
+        <v>390</v>
+      </c>
+      <c r="E5" s="7">
+        <v>53.9</v>
+      </c>
+      <c r="F5" s="7">
+        <v>62.9</v>
+      </c>
+      <c r="G5" s="7">
+        <v>17.5</v>
+      </c>
+      <c r="H5" s="14">
+        <v>58.7</v>
+      </c>
+      <c r="J5" s="23">
+        <v>16385</v>
+      </c>
+      <c r="K5" s="32">
+        <v>16405</v>
+      </c>
+      <c r="L5" s="24">
+        <v>1733337</v>
+      </c>
+      <c r="M5" s="24">
+        <v>10124796</v>
+      </c>
+      <c r="N5" s="24">
+        <v>41523970050</v>
+      </c>
+      <c r="O5" s="24">
+        <v>8</v>
+      </c>
+      <c r="P5" s="24">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="25">
+        <v>234</v>
+      </c>
+      <c r="S5" s="4">
+        <v>0</v>
+      </c>
+      <c r="T5" s="32">
+        <v>1339</v>
+      </c>
+      <c r="U5" s="32">
+        <v>16000</v>
+      </c>
+      <c r="V5" s="32">
+        <v>-23</v>
+      </c>
+      <c r="W5" s="38">
+        <v>0</v>
+      </c>
+      <c r="X5" s="39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B6" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="5">
+        <v>42</v>
+      </c>
+      <c r="D6" s="6">
+        <v>296</v>
+      </c>
+      <c r="E6" s="7">
+        <v>48.2</v>
+      </c>
+      <c r="F6" s="7">
+        <v>53</v>
+      </c>
+      <c r="G6" s="7">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="H6" s="14">
+        <v>61</v>
+      </c>
+      <c r="J6" s="26">
+        <v>16385</v>
+      </c>
+      <c r="K6" s="6">
+        <v>16395</v>
+      </c>
+      <c r="L6" s="6">
+        <v>1301871</v>
+      </c>
+      <c r="M6" s="6">
+        <v>7603272</v>
+      </c>
+      <c r="N6" s="6">
+        <v>41523970050</v>
+      </c>
+      <c r="O6" s="6">
+        <v>3</v>
+      </c>
+      <c r="P6" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="27">
+        <v>178</v>
+      </c>
+      <c r="S6" s="34">
+        <v>0</v>
+      </c>
+      <c r="T6" s="30">
+        <v>1339</v>
+      </c>
+      <c r="U6" s="30">
+        <v>16000</v>
+      </c>
+      <c r="V6" s="30">
+        <v>-23</v>
+      </c>
+      <c r="W6" s="5">
+        <v>0</v>
+      </c>
+      <c r="X6" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="8">
+        <v>47</v>
+      </c>
+      <c r="D7" s="9">
+        <v>308</v>
+      </c>
+      <c r="E7" s="10">
+        <v>38.4</v>
+      </c>
+      <c r="F7" s="10">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="G7" s="10">
+        <v>18.2</v>
+      </c>
+      <c r="H7" s="15">
+        <v>72.5</v>
+      </c>
+      <c r="J7" s="26">
+        <v>32769</v>
+      </c>
+      <c r="K7" s="6">
+        <v>32774</v>
+      </c>
+      <c r="L7" s="6">
+        <v>1301871</v>
+      </c>
+      <c r="M7" s="6">
+        <v>7603272</v>
+      </c>
+      <c r="N7" s="6">
+        <v>41523970050</v>
+      </c>
+      <c r="O7" s="6">
+        <v>1</v>
+      </c>
+      <c r="P7" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="27">
+        <v>188</v>
+      </c>
+      <c r="S7" s="34">
+        <v>0</v>
+      </c>
+      <c r="T7" s="30">
+        <v>1339</v>
+      </c>
+      <c r="U7" s="30">
+        <v>16000</v>
+      </c>
+      <c r="V7" s="30">
+        <v>-23</v>
+      </c>
+      <c r="W7" s="5">
+        <v>0</v>
+      </c>
+      <c r="X7" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="J8" s="26"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="27"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="12"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="26"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="27"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="12"/>
+    </row>
+    <row r="10" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J10" s="26"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="27"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="12"/>
+    </row>
+    <row r="11" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="4"/>
+      <c r="C11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="27"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="12"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C12" s="4">
+        <v>75</v>
+      </c>
+      <c r="D12" s="24">
+        <v>9096</v>
+      </c>
+      <c r="E12" s="36">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="F12" s="36">
+        <v>56.5</v>
+      </c>
+      <c r="G12" s="36">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="H12" s="37">
+        <v>85</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="26">
+        <v>15090625</v>
+      </c>
+      <c r="K12" s="6">
+        <v>15090630</v>
+      </c>
+      <c r="L12" s="6">
+        <v>3912112</v>
+      </c>
+      <c r="M12" s="6">
+        <v>5868168</v>
+      </c>
+      <c r="N12" s="6">
+        <v>16415374466</v>
+      </c>
+      <c r="O12" s="6">
+        <v>1</v>
+      </c>
+      <c r="P12" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="27">
+        <v>7132</v>
+      </c>
+      <c r="S12" s="34">
+        <v>3750</v>
+      </c>
+      <c r="T12" s="30">
+        <v>175</v>
+      </c>
+      <c r="U12" s="30">
+        <v>0</v>
+      </c>
+      <c r="V12" s="30">
+        <v>-23</v>
+      </c>
+      <c r="W12" s="5">
+        <v>-90</v>
+      </c>
+      <c r="X12" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B13" s="17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="C13" s="34">
+        <v>33</v>
+      </c>
+      <c r="D13" s="6">
+        <v>358</v>
+      </c>
+      <c r="E13" s="7">
+        <v>70.2</v>
+      </c>
+      <c r="F13" s="7">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="G13" s="7">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="H13" s="14">
+        <v>60.3</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="26">
+        <v>8769</v>
+      </c>
+      <c r="K13" s="6">
+        <v>8785</v>
+      </c>
+      <c r="L13" s="6">
+        <v>3912112</v>
+      </c>
+      <c r="M13" s="6">
+        <v>5868168</v>
+      </c>
+      <c r="N13" s="6">
+        <v>16415374466</v>
+      </c>
+      <c r="O13" s="6">
+        <v>5</v>
+      </c>
+      <c r="P13" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q13" s="27">
+        <v>135</v>
+      </c>
+      <c r="S13" s="34">
+        <v>3750</v>
+      </c>
+      <c r="T13" s="30">
+        <v>175</v>
+      </c>
+      <c r="U13" s="30">
+        <v>0</v>
+      </c>
+      <c r="V13" s="30">
+        <v>-23</v>
+      </c>
+      <c r="W13" s="5">
+        <v>-90</v>
+      </c>
+      <c r="X13" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="35">
+        <v>13</v>
+      </c>
+      <c r="D14" s="9">
+        <v>361</v>
+      </c>
+      <c r="E14" s="10">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="F14" s="10">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="G14" s="10">
+        <v>15.1</v>
+      </c>
+      <c r="H14" s="15">
+        <v>54.8</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="26">
+        <v>12829</v>
+      </c>
+      <c r="K14" s="6">
+        <v>12848</v>
+      </c>
+      <c r="L14" s="6">
+        <v>3912112</v>
+      </c>
+      <c r="M14" s="6">
+        <v>5868168</v>
+      </c>
+      <c r="N14" s="6">
+        <v>1.04449624406627E+19</v>
+      </c>
+      <c r="O14" s="6">
+        <v>6</v>
+      </c>
+      <c r="P14" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="27">
+        <v>138</v>
+      </c>
+      <c r="S14" s="34">
+        <v>3750</v>
+      </c>
+      <c r="T14" s="30">
+        <v>175</v>
+      </c>
+      <c r="U14" s="30">
+        <v>0</v>
+      </c>
+      <c r="V14" s="30">
+        <v>-23</v>
+      </c>
+      <c r="W14" s="5">
+        <v>-90</v>
+      </c>
+      <c r="X14" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="J15" s="26"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="27"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="12"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="26"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="27"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="12"/>
+    </row>
+    <row r="17" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J17" s="26"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="27"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="12"/>
+    </row>
+    <row r="18" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="4"/>
+      <c r="C18" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="G18" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="H18" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="I18" s="11"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="27"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="12"/>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B19" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="4">
+        <v>33</v>
+      </c>
+      <c r="D19" s="24">
+        <v>15479</v>
+      </c>
+      <c r="E19" s="36">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="F19" s="36">
+        <v>43.9</v>
+      </c>
+      <c r="G19" s="36">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="H19" s="37">
+        <v>89.5</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="26">
+        <v>13925506</v>
+      </c>
+      <c r="K19" s="6">
+        <v>13925744</v>
+      </c>
+      <c r="L19" s="6">
+        <v>70275193</v>
+      </c>
+      <c r="M19" s="6">
+        <v>140469900</v>
+      </c>
+      <c r="N19" s="6">
+        <v>22588934816</v>
+      </c>
+      <c r="O19" s="6">
         <v>1</v>
       </c>
-      <c r="B5">
-        <v>45</v>
-      </c>
-      <c r="C5" s="2">
-        <v>390</v>
-      </c>
-      <c r="D5" s="1">
-        <v>53.9</v>
-      </c>
-      <c r="E5" s="1">
-        <v>56.6</v>
-      </c>
-      <c r="F5" s="1">
-        <v>17.3</v>
-      </c>
-      <c r="G5" s="1">
-        <v>61.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>43</v>
-      </c>
-      <c r="C6" s="2">
-        <v>296</v>
-      </c>
-      <c r="D6" s="1">
-        <v>51</v>
-      </c>
-      <c r="E6" s="1">
-        <v>52.9</v>
-      </c>
-      <c r="F6" s="1">
-        <v>17.8</v>
-      </c>
-      <c r="G6" s="1">
-        <v>62.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>47</v>
-      </c>
-      <c r="C7" s="2">
-        <v>308</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="P19" s="6">
+        <v>236</v>
+      </c>
+      <c r="Q19" s="27">
+        <v>9709</v>
+      </c>
+      <c r="S19" s="34">
+        <v>893</v>
+      </c>
+      <c r="T19" s="30">
+        <v>137</v>
+      </c>
+      <c r="U19" s="30">
+        <v>1364</v>
+      </c>
+      <c r="V19" s="30">
+        <v>-5</v>
+      </c>
+      <c r="W19" s="30">
+        <v>20</v>
+      </c>
+      <c r="X19" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B20" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="34">
+        <v>21</v>
+      </c>
+      <c r="D20" s="6">
+        <v>10816</v>
+      </c>
+      <c r="E20" s="7">
+        <v>59.7</v>
+      </c>
+      <c r="F20" s="7">
+        <v>65.3</v>
+      </c>
+      <c r="G20" s="7">
+        <v>18.8</v>
+      </c>
+      <c r="H20" s="14">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="26">
+        <v>5671796</v>
+      </c>
+      <c r="K20" s="6">
+        <v>5671796</v>
+      </c>
+      <c r="L20" s="6">
+        <v>70275193</v>
+      </c>
+      <c r="M20" s="6">
+        <v>140469900</v>
+      </c>
+      <c r="N20" s="6">
+        <v>22588934816</v>
+      </c>
+      <c r="O20" s="6">
+        <v>19</v>
+      </c>
+      <c r="P20" s="6">
+        <v>254</v>
+      </c>
+      <c r="Q20" s="27">
+        <v>5925</v>
+      </c>
+      <c r="S20" s="34">
+        <v>893</v>
+      </c>
+      <c r="T20" s="30">
+        <v>137</v>
+      </c>
+      <c r="U20" s="30">
+        <v>1364</v>
+      </c>
+      <c r="V20" s="30">
+        <v>-5</v>
+      </c>
+      <c r="W20" s="30">
+        <v>20</v>
+      </c>
+      <c r="X20" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B21" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="34">
+        <v>32</v>
+      </c>
+      <c r="D21" s="6">
+        <v>10794</v>
+      </c>
+      <c r="E21" s="7">
+        <v>64.2</v>
+      </c>
+      <c r="F21" s="7">
         <v>44.4</v>
       </c>
-      <c r="E7" s="1">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="F7" s="1">
-        <v>18</v>
-      </c>
-      <c r="G7" s="1">
-        <v>72.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="G21" s="7">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="H21" s="14">
+        <v>88.4</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="26">
+        <v>5799725</v>
+      </c>
+      <c r="K21" s="6">
+        <v>5799975</v>
+      </c>
+      <c r="L21" s="6">
+        <v>70275193</v>
+      </c>
+      <c r="M21" s="6">
+        <v>140469900</v>
+      </c>
+      <c r="N21" s="6">
+        <v>22588934816</v>
+      </c>
+      <c r="O21" s="6">
+        <v>5</v>
+      </c>
+      <c r="P21" s="6">
+        <v>240</v>
+      </c>
+      <c r="Q21" s="27">
+        <v>5889</v>
+      </c>
+      <c r="S21" s="34">
+        <v>893</v>
+      </c>
+      <c r="T21" s="30">
+        <v>137</v>
+      </c>
+      <c r="U21" s="30">
+        <v>1364</v>
+      </c>
+      <c r="V21" s="30">
+        <v>-5</v>
+      </c>
+      <c r="W21" s="30">
+        <v>20</v>
+      </c>
+      <c r="X21" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>68</v>
-      </c>
-      <c r="C12" s="2">
-        <v>9096</v>
-      </c>
-      <c r="D12" s="1">
-        <v>70.599999999999994</v>
-      </c>
-      <c r="E12" s="1">
-        <v>62.8</v>
-      </c>
-      <c r="F12" s="1">
-        <v>19.5</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="C22" s="35">
         <v>25</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="D22" s="9">
+        <v>16900</v>
+      </c>
+      <c r="E22" s="10">
+        <v>57.5</v>
+      </c>
+      <c r="F22" s="10">
+        <v>67</v>
+      </c>
+      <c r="G22" s="10">
+        <v>18.8</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="28">
+        <v>16116438</v>
+      </c>
+      <c r="K22" s="9">
+        <v>16164505</v>
+      </c>
+      <c r="L22" s="9">
+        <v>70275193</v>
+      </c>
+      <c r="M22" s="9">
+        <v>140469900</v>
+      </c>
+      <c r="N22" s="9">
+        <v>26573927792</v>
+      </c>
+      <c r="O22" s="9">
+        <v>16</v>
+      </c>
+      <c r="P22" s="9">
+        <v>241</v>
+      </c>
+      <c r="Q22" s="29">
+        <v>10889</v>
+      </c>
+      <c r="S22" s="35">
+        <v>893</v>
+      </c>
+      <c r="T22" s="40">
+        <v>137</v>
+      </c>
+      <c r="U22" s="40">
+        <v>1364</v>
+      </c>
+      <c r="V22" s="40">
+        <v>-5</v>
+      </c>
+      <c r="W22" s="40">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13">
-        <v>33</v>
-      </c>
-      <c r="C13" s="2">
-        <v>358</v>
-      </c>
-      <c r="D13" s="1">
-        <v>74.7</v>
-      </c>
-      <c r="E13" s="1">
-        <v>84.9</v>
-      </c>
-      <c r="F13" s="1">
-        <v>20.9</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14">
-        <v>17</v>
-      </c>
-      <c r="C14" s="2">
-        <v>361</v>
-      </c>
-      <c r="D14" s="1">
-        <v>73.2</v>
-      </c>
-      <c r="E14" s="1">
-        <v>80.900000000000006</v>
-      </c>
-      <c r="F14" s="1">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18">
-        <v>25</v>
-      </c>
-      <c r="C18" s="2">
-        <v>14490</v>
-      </c>
-      <c r="D18" s="1">
-        <v>65.2</v>
-      </c>
-      <c r="E18" s="1">
-        <v>71.7</v>
-      </c>
-      <c r="F18" s="1">
-        <v>19.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
+      <c r="X22" s="13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
